--- a/medicine/Mort/Cimetière_de_Lytchakiv/Cimetière_de_Lytchakiv.xlsx
+++ b/medicine/Mort/Cimetière_de_Lytchakiv/Cimetière_de_Lytchakiv.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Lytchakiv</t>
+          <t>Cimetière_de_Lytchakiv</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Lytchakiv (en ukrainien : Личаківський цвинтар, Lytchakivsky tvyntar), anciennement cimetière de Łyczakow en français (en polonais : Cmentarz Łyczakowski), est la plus ancienne nécropole historique de Lviv, située sur les collines de la partie orientale de la ville. Elle a été aménagée à la fin du XVIIIe siècle dans un environnement verdoyant et très boisé, sur ordre de l’empereur Joseph II d’Autriche qui ne voulait plus de cimetières autour des églises dans la ville. Le cimetière abrite les sépultures de nombreux artistes, scientifiques et politiciens polonais, autrichiens, et ukrainiens. 
-En 1990, le cimetière a reçu le statut de musée historique et culturel d'État, il est inscrit au Registre national des monuments d'Ukraine[1].
+En 1990, le cimetière a reçu le statut de musée historique et culturel d'État, il est inscrit au Registre national des monuments d'Ukraine.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Lytchakiv</t>
+          <t>Cimetière_de_Lytchakiv</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fondé en 1786, le cimetière de Lytchakiv est l'une des plus anciennes nécropoles d'Europe. À titre de comparaison : le cimetière de Powązki à Varsovie a été fondée en 1790, le cimetière Rossa à Vilnius en 1801, le cimetière Rakowicki à Cracovie et le cimetière du Père-Lachaise à Paris en 1803.
 Au fil des décennies, les notables polonais, autrichiens et ukrainiens y ont fait ériger des stèles imposantes pour assurer la perpétuation de leur mémoire à travers les siècles. Il y a ici des tombes d’une très grande valeur artistique avec environ 500 statues et sculptures. 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Lytchakiv</t>
+          <t>Cimetière_de_Lytchakiv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Stefan Banach
